--- a/similarities/split_global/harmonic_similarity_timestamps_57.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_57.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,186 +484,198 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:19.672232')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:08.720000', '0:00:11.080000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:07.505864')]</t>
+          <t>('0:00:39.180000', '0:00:53.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['A:7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['F#:7', 'B:7', 'E:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:02.081000', '0:00:13.841000')]</t>
+          <t>('0:00:56.720000', '0:01:02.210000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:24.760000', '0:00:34.920000')]</t>
+          <t>('0:00:42.050000', '0:00:44.830000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=2.081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=56.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['B:min', 'F#:min', 'B:min', 'F#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min', 'G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:37.927913', '0:00:43.802561')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:01:30.980000', '0:01:46.960000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=37.927913</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=90.98</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -672,518 +684,542 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C/7', 'A:7', 'D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['Ab', 'F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+          <t>('0:00:15.824081', '0:00:24.845034')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+          <t>('0:00:19.730000', '0:00:23.230000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=15.824081</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=19.73</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj'], ['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:12.020000'), ('0:00:09.940000', '0:00:12.720000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:48.180000', '0:00:52.180000'), ('0:00:49.480000', '0:00:52.820000')]</t>
+          <t>('0:00:11.070127', '0:00:13.723731')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=48.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=49.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_292</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Ab/5', 'Eb:maj']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E', 'D/2', 'A/5']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:03:26.313000', '0:03:27.541000')]</t>
+          <t>('0:00:19.360000', '0:00:23.020000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.701428', '0:00:04.778072')]</t>
+          <t>('0:03:57.580000', '0:04:13.720000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=206.313']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-292#t=1.701428']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=237.58</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'F#:min']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:49.708684', '0:00:51.763650')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:15.560000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=49.708684']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=7.96']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:7', 'G', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:33.100000', '0:00:45.580000')]</t>
+          <t>('0:00:23.629455', '0:00:29.120975')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:00:54.580000', '0:01:00.600000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=54.58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A/3'], ['D/5', 'A', 'D']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb'], ['Eb', 'Bb', 'Eb']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:38.689000', '0:00:45.633000'), ('0:00:12.743000', '0:00:16.216000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:49.981485', '0:00:59.292687'), ('0:00:51.839081', '0:01:03.042709')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=49.981485', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>schubert-winterreise_41</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+          <t>('0:00:00.660000', '0:00:02.680000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.440000'), ('0:01:49.520000', '0:01:54.200000'), ('0:00:32.200000', '0:00:36.200000')]</t>
+          <t>('0:01:26.940000', '0:01:37.980000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000'), ('0:00:41.320000', '0:00:46.640000')]</t>
+          <t>('0:00:41.260000', '0:00:44.840000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=41.26</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:04.160000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:00:00.860000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:06.980000', '0:00:21.920000')]</t>
+          <t>('0:00:00.600000', '0:00:08.740000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
